--- a/modelo_topográfico/acuracias todas.xlsx
+++ b/modelo_topográfico/acuracias todas.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="modelo_acuracia_cave" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -864,7 +864,7 @@
   <dimension ref="C1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
         <v>2</v>
       </c>
       <c r="N9">
-        <v>1068</v>
+        <v>714</v>
       </c>
       <c r="O9">
-        <v>618</v>
+        <v>431</v>
       </c>
       <c r="Q9" t="s">
         <v>2</v>
@@ -1117,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>834</v>
+        <v>509</v>
       </c>
       <c r="O10">
-        <v>839</v>
+        <v>636</v>
       </c>
       <c r="Q10" t="s">
         <v>3</v>
@@ -1139,11 +1139,11 @@
       <c r="I11" s="1"/>
       <c r="N11">
         <f>N9/(N9+N10)</f>
-        <v>0.56151419558359617</v>
+        <v>0.58381030253475064</v>
       </c>
       <c r="O11">
         <f>O9/(O9+O10)</f>
-        <v>0.42415923129718602</v>
+        <v>0.40393626991565135</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
@@ -1226,12 +1226,6 @@
       <c r="M15" t="s">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>891</v>
-      </c>
-      <c r="O15">
-        <v>666</v>
-      </c>
       <c r="Q15" t="s">
         <v>2</v>
       </c>
@@ -1256,12 +1250,6 @@
       <c r="M16" t="s">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>579</v>
-      </c>
-      <c r="O16">
-        <v>756</v>
-      </c>
       <c r="Q16" t="s">
         <v>3</v>
       </c>
@@ -1277,14 +1265,6 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="N17">
-        <f>N15/(N15+N16)</f>
-        <v>0.60612244897959189</v>
-      </c>
-      <c r="O17">
-        <f>O15/(O15+O16)</f>
-        <v>0.46835443037974683</v>
-      </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M18" s="1" t="s">
@@ -1300,11 +1280,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="Q18:S18"/>
     <mergeCell ref="C5:E5"/>
@@ -1313,6 +1288,11 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
